--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS ENERO 2016.-/ALCOSUR.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS ENERO 2016.-/ALCOSUR.xlsx
@@ -251,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,10 +296,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,10 +313,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,10 +341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="M:N"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,7 +599,7 @@
       <c r="H7" s="8" t="n">
         <v>8488871</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="9" t="n">
         <v>42408</v>
       </c>
       <c r="J7" s="10" t="n">
@@ -643,7 +635,7 @@
       <c r="H8" s="8" t="n">
         <v>1475778</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="9" t="n">
         <v>42410</v>
       </c>
       <c r="J8" s="10"/>
@@ -677,7 +669,7 @@
       <c r="H9" s="8" t="n">
         <v>1475778</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="9" t="n">
         <v>42410</v>
       </c>
       <c r="J9" s="10"/>
@@ -713,7 +705,7 @@
       <c r="H10" s="8" t="n">
         <v>1475778</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="9" t="n">
         <v>42410</v>
       </c>
       <c r="J10" s="10" t="n">
@@ -749,7 +741,7 @@
       <c r="H11" s="8" t="n">
         <v>1475780</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="9" t="n">
         <v>42412</v>
       </c>
       <c r="J11" s="10"/>
@@ -783,7 +775,7 @@
       <c r="H12" s="8" t="n">
         <v>1475780</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="9" t="n">
         <v>42412</v>
       </c>
       <c r="J12" s="10"/>
@@ -817,7 +809,7 @@
       <c r="H13" s="8" t="n">
         <v>1475780</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="9" t="n">
         <v>42412</v>
       </c>
       <c r="J13" s="10" t="n">
@@ -834,33 +826,33 @@
       <c r="A14" s="5" t="n">
         <v>42377</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="n">
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12" t="n">
         <v>5400</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <v>3870</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="12" t="n">
         <v>20898000</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="n">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="n">
         <v>14775780</v>
       </c>
-      <c r="I14" s="15" t="n">
+      <c r="I14" s="14" t="n">
         <v>42412</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -868,33 +860,33 @@
       <c r="A15" s="5" t="n">
         <v>42377</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="n">
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12" t="n">
         <v>5200</v>
       </c>
-      <c r="E15" s="13" t="n">
-        <v>3535</v>
-      </c>
-      <c r="F15" s="13" t="n">
+      <c r="E15" s="12" t="n">
+        <v>3535</v>
+      </c>
+      <c r="F15" s="12" t="n">
         <v>18382000</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14" t="n">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="n">
         <v>14775780</v>
       </c>
-      <c r="I15" s="15" t="n">
+      <c r="I15" s="14" t="n">
         <v>42412</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="14" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -902,37 +894,37 @@
       <c r="A16" s="5" t="n">
         <v>42377</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="n">
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="n">
         <v>5200</v>
       </c>
-      <c r="E16" s="13" t="n">
-        <v>3535</v>
-      </c>
-      <c r="F16" s="13" t="n">
+      <c r="E16" s="12" t="n">
+        <v>3535</v>
+      </c>
+      <c r="F16" s="12" t="n">
         <v>18382000</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>2000000</v>
       </c>
-      <c r="H16" s="14" t="n">
+      <c r="H16" s="13" t="n">
         <v>14775780</v>
       </c>
-      <c r="I16" s="15" t="n">
+      <c r="I16" s="14" t="n">
         <v>42412</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="15" t="n">
         <v>57662000</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="14" t="s">
+      <c r="K16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -959,7 +951,7 @@
       <c r="H17" s="8" t="n">
         <v>1475782</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="9" t="n">
         <v>42415</v>
       </c>
       <c r="J17" s="8"/>
@@ -993,7 +985,7 @@
       <c r="H18" s="8" t="n">
         <v>1475782</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="9" t="n">
         <v>42415</v>
       </c>
       <c r="J18" s="8"/>
@@ -1027,7 +1019,7 @@
       <c r="H19" s="8" t="n">
         <v>1475782</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="9" t="n">
         <v>42415</v>
       </c>
       <c r="J19" s="10" t="n">
@@ -1065,7 +1057,7 @@
       <c r="H20" s="8" t="n">
         <v>1475782</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="9" t="n">
         <v>42415</v>
       </c>
       <c r="J20" s="10" t="n">
@@ -1101,7 +1093,7 @@
       <c r="H21" s="8" t="n">
         <v>14129369</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="9" t="n">
         <v>42418</v>
       </c>
       <c r="J21" s="8"/>
@@ -1137,7 +1129,7 @@
       <c r="H22" s="8" t="n">
         <v>14129369</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="9" t="n">
         <v>42418</v>
       </c>
       <c r="J22" s="10" t="n">
@@ -1154,10 +1146,10 @@
       <c r="A23" s="5" t="n">
         <v>42383</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="7" t="n">
@@ -1173,7 +1165,7 @@
       <c r="H23" s="8" t="n">
         <v>1475783</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="9" t="n">
         <v>42418</v>
       </c>
       <c r="J23" s="8"/>
@@ -1188,10 +1180,10 @@
       <c r="A24" s="5" t="n">
         <v>42383</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="7" t="n">
@@ -1207,7 +1199,7 @@
       <c r="H24" s="8" t="n">
         <v>1475783</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="I24" s="9" t="n">
         <v>42418</v>
       </c>
       <c r="J24" s="8"/>
@@ -1222,10 +1214,10 @@
       <c r="A25" s="5" t="n">
         <v>42383</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="7" t="n">
@@ -1243,7 +1235,7 @@
       <c r="H25" s="8" t="n">
         <v>1475783</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="9" t="n">
         <v>42418</v>
       </c>
       <c r="J25" s="10" t="n">
@@ -1260,10 +1252,10 @@
       <c r="A26" s="5" t="n">
         <v>42384</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="7" t="n">
@@ -1279,7 +1271,7 @@
       <c r="H26" s="8" t="n">
         <v>1475788</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="9" t="n">
         <v>42422</v>
       </c>
       <c r="J26" s="10" t="n">
@@ -1296,10 +1288,10 @@
       <c r="A27" s="5" t="n">
         <v>42387</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="7" t="n">
@@ -1315,7 +1307,7 @@
       <c r="H27" s="8" t="n">
         <v>1475790</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="9" t="n">
         <v>42422</v>
       </c>
       <c r="J27" s="8"/>
@@ -1330,10 +1322,10 @@
       <c r="A28" s="5" t="n">
         <v>42387</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="7" t="n">
@@ -1349,7 +1341,7 @@
       <c r="H28" s="8" t="n">
         <v>1475790</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="I28" s="9" t="n">
         <v>42422</v>
       </c>
       <c r="J28" s="8"/>
@@ -1364,10 +1356,10 @@
       <c r="A29" s="5" t="n">
         <v>42387</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="7" t="n">
@@ -1383,7 +1375,7 @@
       <c r="H29" s="8" t="n">
         <v>1475790</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="9" t="n">
         <v>42422</v>
       </c>
       <c r="J29" s="10" t="n">
@@ -1400,10 +1392,10 @@
       <c r="A30" s="5" t="n">
         <v>42387</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="7" t="n">
@@ -1419,7 +1411,7 @@
       <c r="H30" s="8" t="n">
         <v>1475791</v>
       </c>
-      <c r="I30" s="11" t="n">
+      <c r="I30" s="9" t="n">
         <v>42422</v>
       </c>
       <c r="J30" s="8"/>
@@ -1434,10 +1426,10 @@
       <c r="A31" s="5" t="n">
         <v>42387</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="7" t="n">
@@ -1455,7 +1447,7 @@
       <c r="H31" s="8" t="n">
         <v>1475791</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="9" t="n">
         <v>42422</v>
       </c>
       <c r="J31" s="10" t="n">
@@ -1491,7 +1483,7 @@
       <c r="H32" s="8" t="n">
         <v>14129382</v>
       </c>
-      <c r="I32" s="11" t="n">
+      <c r="I32" s="9" t="n">
         <v>42425</v>
       </c>
       <c r="J32" s="8"/>
@@ -1525,7 +1517,7 @@
       <c r="H33" s="8" t="n">
         <v>14129382</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="9" t="n">
         <v>42425</v>
       </c>
       <c r="J33" s="8"/>
@@ -1561,7 +1553,7 @@
       <c r="H34" s="8" t="n">
         <v>14129382</v>
       </c>
-      <c r="I34" s="11" t="n">
+      <c r="I34" s="9" t="n">
         <v>42425</v>
       </c>
       <c r="J34" s="10" t="n">
@@ -1597,7 +1589,7 @@
       <c r="H35" s="8" t="n">
         <v>14129383</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="9" t="n">
         <v>42425</v>
       </c>
       <c r="J35" s="8"/>
@@ -1631,7 +1623,7 @@
       <c r="H36" s="8" t="n">
         <v>14129383</v>
       </c>
-      <c r="I36" s="11" t="n">
+      <c r="I36" s="9" t="n">
         <v>42425</v>
       </c>
       <c r="J36" s="10" t="n">
@@ -1667,7 +1659,7 @@
       <c r="H37" s="8" t="n">
         <v>1475789</v>
       </c>
-      <c r="I37" s="11" t="n">
+      <c r="I37" s="9" t="n">
         <v>42426</v>
       </c>
       <c r="J37" s="8"/>
@@ -1701,7 +1693,7 @@
       <c r="H38" s="8" t="n">
         <v>1475789</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="I38" s="9" t="n">
         <v>42426</v>
       </c>
       <c r="J38" s="10" t="n">
@@ -1739,7 +1731,7 @@
       <c r="H39" s="8" t="n">
         <v>1475789</v>
       </c>
-      <c r="I39" s="11" t="n">
+      <c r="I39" s="9" t="n">
         <v>42426</v>
       </c>
       <c r="J39" s="10" t="n">
@@ -1775,7 +1767,7 @@
       <c r="H40" s="8" t="n">
         <v>14129386</v>
       </c>
-      <c r="I40" s="11" t="n">
+      <c r="I40" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J40" s="8"/>
@@ -1809,7 +1801,7 @@
       <c r="H41" s="8" t="n">
         <v>14129386</v>
       </c>
-      <c r="I41" s="11" t="n">
+      <c r="I41" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J41" s="10" t="n">
@@ -1845,7 +1837,7 @@
       <c r="H42" s="8" t="n">
         <v>14129435</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="I42" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J42" s="8"/>
@@ -1879,7 +1871,7 @@
       <c r="H43" s="8" t="n">
         <v>14129435</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="I43" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J43" s="10" t="n">
@@ -1896,10 +1888,10 @@
       <c r="A44" s="5" t="n">
         <v>42394</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="7" t="n">
@@ -1915,7 +1907,7 @@
       <c r="H44" s="8" t="n">
         <v>14129387</v>
       </c>
-      <c r="I44" s="11" t="n">
+      <c r="I44" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J44" s="8"/>
@@ -1930,10 +1922,10 @@
       <c r="A45" s="5" t="n">
         <v>42394</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="7" t="n">
@@ -1949,7 +1941,7 @@
       <c r="H45" s="8" t="n">
         <v>14129387</v>
       </c>
-      <c r="I45" s="11" t="n">
+      <c r="I45" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J45" s="10" t="n">
@@ -1987,7 +1979,7 @@
       <c r="H46" s="8" t="n">
         <v>14129434</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="I46" s="9" t="n">
         <v>42431</v>
       </c>
       <c r="J46" s="10" t="n">
@@ -2023,7 +2015,7 @@
       <c r="H47" s="8" t="n">
         <v>14129433</v>
       </c>
-      <c r="I47" s="11" t="n">
+      <c r="I47" s="9" t="n">
         <v>42433</v>
       </c>
       <c r="J47" s="8"/>
@@ -2057,7 +2049,7 @@
       <c r="H48" s="8" t="n">
         <v>14129433</v>
       </c>
-      <c r="I48" s="11" t="n">
+      <c r="I48" s="9" t="n">
         <v>42433</v>
       </c>
       <c r="J48" s="10" t="n">
@@ -2077,7 +2069,7 @@
       <c r="B49" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="7" t="n">
@@ -2093,7 +2085,7 @@
       <c r="H49" s="8" t="n">
         <v>14129411</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="I49" s="9" t="n">
         <v>42436</v>
       </c>
       <c r="J49" s="8"/>
@@ -2111,7 +2103,7 @@
       <c r="B50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="7" t="n">
@@ -2127,7 +2119,7 @@
       <c r="H50" s="8" t="n">
         <v>14129411</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="9" t="n">
         <v>42436</v>
       </c>
       <c r="J50" s="8"/>
@@ -2145,7 +2137,7 @@
       <c r="B51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="7" t="n">
@@ -2161,7 +2153,7 @@
       <c r="H51" s="8" t="n">
         <v>14129411</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="9" t="n">
         <v>42436</v>
       </c>
       <c r="J51" s="10" t="n">
@@ -2178,10 +2170,10 @@
       <c r="A52" s="5" t="n">
         <v>42397</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="7" t="n">
@@ -2197,7 +2189,7 @@
       <c r="H52" s="8" t="n">
         <v>13721511</v>
       </c>
-      <c r="I52" s="11" t="n">
+      <c r="I52" s="9" t="n">
         <v>42451</v>
       </c>
       <c r="J52" s="8"/>
@@ -2212,10 +2204,10 @@
       <c r="A53" s="5" t="n">
         <v>42397</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="7" t="n">
@@ -2231,7 +2223,7 @@
       <c r="H53" s="8" t="n">
         <v>13721511</v>
       </c>
-      <c r="I53" s="11" t="n">
+      <c r="I53" s="9" t="n">
         <v>42451</v>
       </c>
       <c r="J53" s="8"/>
@@ -2246,10 +2238,10 @@
       <c r="A54" s="5" t="n">
         <v>42397</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="7" t="n">
@@ -2265,7 +2257,7 @@
       <c r="H54" s="8" t="n">
         <v>13721511</v>
       </c>
-      <c r="I54" s="11" t="n">
+      <c r="I54" s="9" t="n">
         <v>42451</v>
       </c>
       <c r="J54" s="10" t="n">
@@ -2301,7 +2293,7 @@
       <c r="H55" s="8" t="n">
         <v>14129431</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="I55" s="9" t="n">
         <v>42436</v>
       </c>
       <c r="J55" s="10" t="n">
@@ -2318,10 +2310,10 @@
       <c r="A56" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="7" t="n">
@@ -2337,7 +2329,7 @@
       <c r="H56" s="8" t="n">
         <v>14129432</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="I56" s="9" t="n">
         <v>42436</v>
       </c>
       <c r="J56" s="8"/>
@@ -2352,10 +2344,10 @@
       <c r="A57" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="7" t="n">
@@ -2371,7 +2363,7 @@
       <c r="H57" s="8" t="n">
         <v>14129432</v>
       </c>
-      <c r="I57" s="11" t="n">
+      <c r="I57" s="9" t="n">
         <v>42436</v>
       </c>
       <c r="J57" s="10" t="n">
@@ -2388,10 +2380,10 @@
       <c r="A58" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="7" t="n">
@@ -2407,7 +2399,7 @@
       <c r="H58" s="8" t="n">
         <v>14129362</v>
       </c>
-      <c r="I58" s="11" t="n">
+      <c r="I58" s="9" t="n">
         <v>42416</v>
       </c>
       <c r="J58" s="10" t="n">
@@ -2421,35 +2413,29 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="18" t="n">
+      <c r="F59" s="16" t="n">
         <f aca="false">SUM(F2:F58)</f>
         <v>2415877200</v>
       </c>
-      <c r="G59" s="19" t="n">
+      <c r="G59" s="17" t="n">
         <f aca="false">SUM(G2:G58)</f>
         <v>34597000</v>
       </c>
-      <c r="J59" s="19" t="n">
+      <c r="J59" s="17" t="n">
         <f aca="false">SUM(J2:J58)</f>
         <v>2415877200</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="18" t="n">
+      <c r="F61" s="16" t="n">
         <f aca="false">F59+G59</f>
         <v>2450474200</v>
       </c>
-      <c r="H61" s="18" t="n">
+      <c r="H61" s="16" t="n">
         <f aca="false">J59-F61</f>
         <v>-34597000</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
